--- a/_nhandt/Report_01/ReactJS_Training_Schedule.xlsx
+++ b/_nhandt/Report_01/ReactJS_Training_Schedule.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="114">
   <si>
     <t>Training Outline</t>
   </si>
@@ -390,10 +390,13 @@
     <t>24/06</t>
   </si>
   <si>
-    <t>Learn Javascript, Reactjs</t>
-  </si>
-  <si>
     <t>27/06</t>
+  </si>
+  <si>
+    <t>100/100</t>
+  </si>
+  <si>
+    <t>80/100</t>
   </si>
 </sst>
 </file>
@@ -843,44 +846,44 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4520,8 +4523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5298,19 +5301,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="23.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
     </row>
     <row r="4" spans="2:12" ht="40.5" customHeight="1">
       <c r="B4" s="71" t="s">
@@ -5386,10 +5389,10 @@
         <v>110</v>
       </c>
       <c r="J6" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="L6" s="7"/>
     </row>
@@ -5411,18 +5414,24 @@
       <c r="H7" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="L7" s="48" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:12" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="B8" s="80">
+      <c r="B8" s="81">
         <v>3</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="78" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -5432,22 +5441,28 @@
         <v>8</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="L8" s="49" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1">
-      <c r="B9" s="81"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
@@ -5455,18 +5470,24 @@
         <v>8</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="L9" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1">
-      <c r="B10" s="81"/>
-      <c r="C10" s="78"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
@@ -5474,18 +5495,24 @@
         <v>8</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="L10" s="49" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="51">
-      <c r="B11" s="81"/>
-      <c r="C11" s="78"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="8" t="s">
         <v>49</v>
       </c>
@@ -5493,18 +5520,24 @@
         <v>8</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="L11" s="49" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:12" s="1" customFormat="1">
-      <c r="B12" s="81"/>
-      <c r="C12" s="78"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="8" t="s">
         <v>47</v>
       </c>
@@ -5512,18 +5545,24 @@
         <v>8</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="L12" s="49" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:12" s="1" customFormat="1">
-      <c r="B13" s="82"/>
-      <c r="C13" s="79"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="62" t="s">
         <v>102</v>
       </c>
@@ -5531,18 +5570,18 @@
         <v>2</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="85"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12" s="1" customFormat="1">
-      <c r="B14" s="80">
+      <c r="B14" s="81">
         <v>4</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="84" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -5552,10 +5591,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="77" t="s">
+      <c r="G14" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="85"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
@@ -5564,8 +5603,8 @@
       </c>
     </row>
     <row r="15" spans="2:12" s="1" customFormat="1">
-      <c r="B15" s="81"/>
-      <c r="C15" s="87"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="15" t="s">
         <v>64</v>
       </c>
@@ -5573,8 +5612,8 @@
         <v>8</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="85"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="76"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
@@ -5583,8 +5622,8 @@
       </c>
     </row>
     <row r="16" spans="2:12" s="1" customFormat="1">
-      <c r="B16" s="81"/>
-      <c r="C16" s="87"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="15" t="s">
         <v>66</v>
       </c>
@@ -5592,8 +5631,8 @@
         <v>8</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="85"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
@@ -5602,8 +5641,8 @@
       </c>
     </row>
     <row r="17" spans="2:12" s="1" customFormat="1">
-      <c r="B17" s="81"/>
-      <c r="C17" s="87"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="15" t="s">
         <v>68</v>
       </c>
@@ -5611,8 +5650,8 @@
         <v>8</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="85"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="76"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
@@ -5621,8 +5660,8 @@
       </c>
     </row>
     <row r="18" spans="2:12" s="1" customFormat="1">
-      <c r="B18" s="81"/>
-      <c r="C18" s="87"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="15" t="s">
         <v>70</v>
       </c>
@@ -5630,8 +5669,8 @@
         <v>8</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="85"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
@@ -5640,8 +5679,8 @@
       </c>
     </row>
     <row r="19" spans="2:12" s="1" customFormat="1">
-      <c r="B19" s="81"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="15" t="s">
         <v>72</v>
       </c>
@@ -5649,8 +5688,8 @@
         <v>8</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="85"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="76"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
@@ -5659,8 +5698,8 @@
       </c>
     </row>
     <row r="20" spans="2:12" s="1" customFormat="1">
-      <c r="B20" s="81"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="15" t="s">
         <v>74</v>
       </c>
@@ -5668,8 +5707,8 @@
         <v>8</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="85"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
@@ -5678,8 +5717,8 @@
       </c>
     </row>
     <row r="21" spans="2:12" s="1" customFormat="1">
-      <c r="B21" s="81"/>
-      <c r="C21" s="87"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="15" t="s">
         <v>76</v>
       </c>
@@ -5687,8 +5726,8 @@
         <v>16</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="85"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="76"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
@@ -5697,8 +5736,8 @@
       </c>
     </row>
     <row r="22" spans="2:12" s="1" customFormat="1">
-      <c r="B22" s="81"/>
-      <c r="C22" s="87"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="15" t="s">
         <v>78</v>
       </c>
@@ -5706,8 +5745,8 @@
         <v>16</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="85"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
@@ -5716,8 +5755,8 @@
       </c>
     </row>
     <row r="23" spans="2:12" s="1" customFormat="1">
-      <c r="B23" s="81"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="15" t="s">
         <v>80</v>
       </c>
@@ -5725,8 +5764,8 @@
         <v>16</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="85"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="76"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
@@ -5735,8 +5774,8 @@
       </c>
     </row>
     <row r="24" spans="2:12" s="1" customFormat="1" ht="25.5">
-      <c r="B24" s="81"/>
-      <c r="C24" s="87"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="15" t="s">
         <v>82</v>
       </c>
@@ -5744,8 +5783,8 @@
         <v>20</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="85"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
@@ -5754,8 +5793,8 @@
       </c>
     </row>
     <row r="25" spans="2:12" s="1" customFormat="1">
-      <c r="B25" s="81"/>
-      <c r="C25" s="87"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="15" t="s">
         <v>84</v>
       </c>
@@ -5763,8 +5802,8 @@
         <v>20</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="86"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="77"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -5773,8 +5812,8 @@
       </c>
     </row>
     <row r="26" spans="2:12" s="1" customFormat="1">
-      <c r="B26" s="81"/>
-      <c r="C26" s="76"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="62" t="s">
         <v>108</v>
       </c>
@@ -5782,7 +5821,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="79"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="57"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -5790,10 +5829,10 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="2:12" s="1" customFormat="1" ht="38.25">
-      <c r="B27" s="81">
+      <c r="B27" s="82">
         <v>5</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="84" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="44" t="s">
@@ -5803,7 +5842,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="77" t="s">
+      <c r="G27" s="78" t="s">
         <v>88</v>
       </c>
       <c r="H27" s="53"/>
@@ -5815,8 +5854,8 @@
       </c>
     </row>
     <row r="28" spans="2:12" s="1" customFormat="1">
-      <c r="B28" s="82"/>
-      <c r="C28" s="76"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="86"/>
       <c r="D28" s="62" t="s">
         <v>109</v>
       </c>
@@ -5824,7 +5863,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="15"/>
-      <c r="G28" s="79"/>
+      <c r="G28" s="80"/>
       <c r="H28" s="57"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -5911,6 +5950,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="G14:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B14:B26"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="H8:H25"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="B8:B13"/>
@@ -5926,12 +5971,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="G14:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B14:B26"/>
-    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" display="https://www.w3schools.com/js/default.asp"/>
